--- a/Simulation Data.xlsx
+++ b/Simulation Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amogh/Downloads/ME 497/RASPA2/examples/Bulk-Density/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2A2CA20-B90C-7B44-B1EB-31B130720442}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20C27FD4-F6EF-8C4A-BE5D-51EBD969495C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="42">
   <si>
     <t>Fluid</t>
   </si>
@@ -160,6 +160,9 @@
   </si>
   <si>
     <t>Pressure (Bar)</t>
+  </si>
+  <si>
+    <t>Error (%)</t>
   </si>
 </sst>
 </file>
@@ -665,7 +668,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -673,6 +676,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -807,15 +811,15 @@
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="1"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>GCMC</c:v>
+            <c:v>NIST</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:srgbClr val="0070C0"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -826,12 +830,10 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:srgbClr val="0070C0"/>
               </a:solidFill>
               <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
+                <a:noFill/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -868,7 +870,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Simulation!$G$2:$G$8</c:f>
+              <c:f>Simulation!$I$2:$I$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -876,22 +878,22 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.2564108957177584</c:v>
+                  <c:v>2.0099</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.5267493610920653</c:v>
+                  <c:v>4.3163999999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.9789515676619098</c:v>
+                  <c:v>6.7725</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.0370803465685974</c:v>
+                  <c:v>9.0792999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11.027171975316337</c:v>
+                  <c:v>11.019</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>13.082289472043884</c:v>
+                  <c:v>12.577</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -899,20 +901,20 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-E2F3-9340-94ED-9A52FAF9E958}"/>
+              <c16:uniqueId val="{00000002-E2F3-9340-94ED-9A52FAF9E958}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="0"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>NIST</c:v>
+            <c:v>GCMC</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -923,12 +925,10 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
               <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
+                <a:noFill/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -965,7 +965,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Simulation!$I$2:$I$8</c:f>
+              <c:f>Simulation!$G$2:$G$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -973,22 +973,22 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0099</c:v>
+                  <c:v>2.2564108957177584</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.3163999999999998</c:v>
+                  <c:v>4.5267493610920653</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.7725</c:v>
+                  <c:v>6.9789515676619098</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.0792999999999999</c:v>
+                  <c:v>9.0370803465685974</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11.019</c:v>
+                  <c:v>11.027171975316337</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12.577</c:v>
+                  <c:v>13.082289472043884</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -996,7 +996,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-E2F3-9340-94ED-9A52FAF9E958}"/>
+              <c16:uniqueId val="{00000000-E2F3-9340-94ED-9A52FAF9E958}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1289,12 +1289,7 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -1395,15 +1390,15 @@
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="1"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>GCMC</c:v>
+            <c:v>NIST</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:srgbClr val="0070C0"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1414,12 +1409,10 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:srgbClr val="0070C0"/>
               </a:solidFill>
               <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
+                <a:noFill/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -1456,7 +1449,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Simulation!$G$18:$G$24</c:f>
+              <c:f>Simulation!$I$24:$I$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1464,22 +1457,22 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11.632644980451563</c:v>
+                  <c:v>11.385</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11.850941363764186</c:v>
+                  <c:v>11.612</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12.020875098649297</c:v>
+                  <c:v>11.805</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12.255304610890882</c:v>
+                  <c:v>11.974</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12.409350592802911</c:v>
+                  <c:v>12.125</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12.472914531155034</c:v>
+                  <c:v>12.262</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1487,20 +1480,20 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-FFF2-364A-A65B-A3A9B28AD367}"/>
+              <c16:uniqueId val="{00000001-FFF2-364A-A65B-A3A9B28AD367}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="0"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>NIST</c:v>
+            <c:v>GCMC</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1511,12 +1504,10 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
               <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
+                <a:noFill/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -1553,7 +1544,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Simulation!$I$18:$I$24</c:f>
+              <c:f>Simulation!$G$24:$G$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1561,22 +1552,22 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11.385</c:v>
+                  <c:v>11.632644980451563</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11.612</c:v>
+                  <c:v>11.850941363764186</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11.805</c:v>
+                  <c:v>12.020875098649297</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11.974</c:v>
+                  <c:v>12.255304610890882</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12.125</c:v>
+                  <c:v>12.409350592802911</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12.262</c:v>
+                  <c:v>12.472914531155034</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1584,7 +1575,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-FFF2-364A-A65B-A3A9B28AD367}"/>
+              <c16:uniqueId val="{00000000-FFF2-364A-A65B-A3A9B28AD367}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1877,12 +1868,7 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -1983,15 +1969,15 @@
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="1"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>GCMC</c:v>
+            <c:v>NIST</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:srgbClr val="0070C0"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -2002,12 +1988,10 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:srgbClr val="0070C0"/>
               </a:solidFill>
               <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
+                <a:noFill/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -2044,7 +2028,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Simulation!$G$34:$G$40</c:f>
+              <c:f>Simulation!$I$40:$I$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -2052,22 +2036,22 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.7964629116894146</c:v>
+                  <c:v>7.6376999999999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.799443460662788</c:v>
+                  <c:v>7.6743000000000006</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.8159111532989689</c:v>
+                  <c:v>7.7092000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.9115273036156495</c:v>
+                  <c:v>7.7427000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.9571262796575359</c:v>
+                  <c:v>7.7748999999999997</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.994845164629349</c:v>
+                  <c:v>7.8058999999999994</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2075,20 +2059,20 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0C8C-F148-BD39-1206D520B8CF}"/>
+              <c16:uniqueId val="{00000001-0C8C-F148-BD39-1206D520B8CF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="0"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>NIST</c:v>
+            <c:v>GCMC</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -2099,12 +2083,10 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
               <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
+                <a:noFill/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -2141,7 +2123,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Simulation!$I$34:$I$40</c:f>
+              <c:f>Simulation!$G$40:$G$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -2149,22 +2131,22 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.6376999999999997</c:v>
+                  <c:v>7.7964629116894146</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.6743000000000006</c:v>
+                  <c:v>7.799443460662788</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.7092000000000001</c:v>
+                  <c:v>7.8159111532989689</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.7427000000000001</c:v>
+                  <c:v>7.9115273036156495</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.7748999999999997</c:v>
+                  <c:v>7.9571262796575359</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.8058999999999994</c:v>
+                  <c:v>7.994845164629349</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2172,7 +2154,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-0C8C-F148-BD39-1206D520B8CF}"/>
+              <c16:uniqueId val="{00000000-0C8C-F148-BD39-1206D520B8CF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2465,12 +2447,7 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -2571,15 +2548,15 @@
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="1"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>GCMC</c:v>
+            <c:v>NIST</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:srgbClr val="0070C0"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -2590,22 +2567,20 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:srgbClr val="0070C0"/>
               </a:solidFill>
               <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
+                <a:noFill/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Simulation!$E$2:$E$8</c:f>
+              <c:f>Simulation!$E$10:$E$22</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0" formatCode="General">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2613,18 +2588,36 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="6">
+                  <c:v>2.25</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.75</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="10">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="11">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="12">
                   <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
@@ -2632,30 +2625,48 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Simulation!$G$2:$G$8</c:f>
+              <c:f>Simulation!$I$10:$I$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.2564108957177584</c:v>
+                  <c:v>11.180999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.5267493610920653</c:v>
+                  <c:v>11.8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.9789515676619098</c:v>
+                  <c:v>12.207000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.0370803465685974</c:v>
+                  <c:v>12.521000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11.027171975316337</c:v>
+                  <c:v>12.779</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>13.082289472043884</c:v>
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13.195</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13.37</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13.529</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14.054</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>14.467000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14.811</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2663,20 +2674,20 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B6F8-4948-8DF7-4984294F3879}"/>
+              <c16:uniqueId val="{00000001-B6F8-4948-8DF7-4984294F3879}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="0"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>NIST</c:v>
+            <c:v>GCMC</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -2687,22 +2698,20 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
               <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
+                <a:noFill/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Simulation!$E$2:$E$8</c:f>
+              <c:f>Simulation!$E$10:$E$22</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0" formatCode="General">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2710,18 +2719,36 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="6">
+                  <c:v>2.25</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.75</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="10">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="11">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="12">
                   <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
@@ -2729,30 +2756,48 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Simulation!$I$2:$I$8</c:f>
+              <c:f>Simulation!$G$10:$G$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0099</c:v>
+                  <c:v>11.525374937144651</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.3163999999999998</c:v>
+                  <c:v>11.819576880405892</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.7725</c:v>
+                  <c:v>11.701724098940304</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.0792999999999999</c:v>
+                  <c:v>12.722282121411258</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11.019</c:v>
+                  <c:v>12.460920601389336</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12.577</c:v>
+                  <c:v>12.976074394127645</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12.991605984095269</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13.627523858427139</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13.66485461458031</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14.21996179459005</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>14.401457778499079</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14.879382913455167</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2760,7 +2805,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-B6F8-4948-8DF7-4984294F3879}"/>
+              <c16:uniqueId val="{00000000-B6F8-4948-8DF7-4984294F3879}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3053,12 +3098,7 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -3159,15 +3199,15 @@
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="1"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>GCMC</c:v>
+            <c:v>NIST</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:srgbClr val="0070C0"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -3178,12 +3218,10 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:srgbClr val="0070C0"/>
               </a:solidFill>
               <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
+                <a:noFill/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -3220,7 +3258,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Simulation!$G$26:$G$32</c:f>
+              <c:f>Simulation!$I$32:$I$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -3228,22 +3266,22 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10.073725702055325</c:v>
+                  <c:v>9.9601000000000006</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10.249568151239973</c:v>
+                  <c:v>10.058999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10.373788156676795</c:v>
+                  <c:v>10.148999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10.463286833602307</c:v>
+                  <c:v>10.231999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10.519685937559142</c:v>
+                  <c:v>10.311</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10.661784653712351</c:v>
+                  <c:v>10.384</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3251,20 +3289,20 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-64C4-B54A-85A2-05309E38B4B2}"/>
+              <c16:uniqueId val="{00000001-64C4-B54A-85A2-05309E38B4B2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="0"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>NIST</c:v>
+            <c:v>GCMC</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -3275,12 +3313,10 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
               <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
+                <a:noFill/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -3317,7 +3353,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Simulation!$I$26:$I$32</c:f>
+              <c:f>Simulation!$G$32:$G$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -3325,22 +3361,22 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.9601000000000006</c:v>
+                  <c:v>10.073725702055325</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10.058999999999999</c:v>
+                  <c:v>10.249568151239973</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10.148999999999999</c:v>
+                  <c:v>10.373788156676795</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10.231999999999999</c:v>
+                  <c:v>10.463286833602307</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10.311</c:v>
+                  <c:v>10.519685937559142</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10.384</c:v>
+                  <c:v>10.661784653712351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3348,7 +3384,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-64C4-B54A-85A2-05309E38B4B2}"/>
+              <c16:uniqueId val="{00000000-64C4-B54A-85A2-05309E38B4B2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3641,12 +3677,7 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -6463,7 +6494,7 @@
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>812800</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>190030</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -6493,13 +6524,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>793750</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>187206</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -6537,7 +6568,7 @@
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>793751</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>187207</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -6569,13 +6600,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>793751</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>187206</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -6607,13 +6638,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>793750</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>187207</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -6941,10 +6972,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I41"/>
+  <dimension ref="A1:J47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" zoomScale="64" zoomScaleNormal="191" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6955,10 +6986,11 @@
     <col min="6" max="6" width="22.83203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="26.83203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -6986,8 +7018,11 @@
       <c r="I1" s="5" t="s">
         <v>36</v>
       </c>
+      <c r="J1" s="7" t="s">
+        <v>41</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -7017,7 +7052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -7047,7 +7082,7 @@
         <v>2.0099</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -7077,7 +7112,7 @@
         <v>4.3163999999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -7107,7 +7142,7 @@
         <v>6.7725</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -7137,7 +7172,7 @@
         <v>9.0792999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -7167,7 +7202,7 @@
         <v>11.019</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>1</v>
       </c>
@@ -7197,10 +7232,10 @@
         <v>12.577</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I9" s="2"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>32</v>
       </c>
@@ -7230,7 +7265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -7247,20 +7282,20 @@
         <v>1</v>
       </c>
       <c r="F11">
-        <v>228.81157999999999</v>
+        <v>346.55696</v>
       </c>
       <c r="G11">
-        <f t="shared" ref="G11:G40" si="1">(F11/(C11/1000))/1000</f>
-        <v>7.6095405772848084</v>
+        <f t="shared" ref="G11:G46" si="1">(F11/(C11/1000))/1000</f>
+        <v>11.525374937144651</v>
       </c>
       <c r="H11">
-        <v>15.30236</v>
+        <v>34.682810000000003</v>
       </c>
       <c r="I11" s="2">
         <v>11.180999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>32</v>
       </c>
@@ -7271,20 +7306,27 @@
         <v>30.069040000000001</v>
       </c>
       <c r="D12">
-        <v>97.444000000000003</v>
+        <f>D11*1.25</f>
+        <v>60.902500000000003</v>
       </c>
       <c r="E12" s="3">
-        <v>2</v>
+        <v>1.25</v>
+      </c>
+      <c r="F12">
+        <v>355.40332999999998</v>
       </c>
       <c r="G12">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>12.779</v>
+        <v>11.819576880405892</v>
+      </c>
+      <c r="H12">
+        <v>19.606839999999998</v>
+      </c>
+      <c r="I12" s="2">
+        <v>11.8</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>32</v>
       </c>
@@ -7295,23 +7337,27 @@
         <v>30.069040000000001</v>
       </c>
       <c r="D13">
-        <v>146.16999999999999</v>
+        <f>D11*1.5</f>
+        <v>73.082999999999998</v>
       </c>
       <c r="E13" s="3">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="F13">
-        <v>133.85</v>
+        <v>351.85960999999998</v>
       </c>
       <c r="G13">
         <f t="shared" si="1"/>
-        <v>4.4514224597792271</v>
-      </c>
-      <c r="I13">
-        <v>13.529</v>
+        <v>11.701724098940304</v>
+      </c>
+      <c r="H13">
+        <v>38.163710000000002</v>
+      </c>
+      <c r="I13" s="2">
+        <v>12.207000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -7322,20 +7368,27 @@
         <v>30.069040000000001</v>
       </c>
       <c r="D14">
-        <v>194.89</v>
+        <f>D11*1.75</f>
+        <v>85.263500000000008</v>
       </c>
       <c r="E14" s="3">
-        <v>4</v>
+        <v>1.75</v>
+      </c>
+      <c r="F14">
+        <v>382.54680999999999</v>
       </c>
       <c r="G14">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>14.054</v>
+        <v>12.722282121411258</v>
+      </c>
+      <c r="H14">
+        <v>11.2667</v>
+      </c>
+      <c r="I14" s="2">
+        <v>12.521000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>32</v>
       </c>
@@ -7346,20 +7399,26 @@
         <v>30.069040000000001</v>
       </c>
       <c r="D15">
-        <v>243.61</v>
+        <v>97.444000000000003</v>
       </c>
       <c r="E15" s="3">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>374.68792000000002</v>
       </c>
       <c r="G15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>12.460920601389336</v>
+      </c>
+      <c r="H15">
+        <v>7.2370700000000001</v>
       </c>
       <c r="I15">
-        <v>14.467000000000001</v>
+        <v>12.779</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>32</v>
       </c>
@@ -7370,197 +7429,206 @@
         <v>30.069040000000001</v>
       </c>
       <c r="D16">
-        <v>292.33</v>
+        <f>D11*2.25</f>
+        <v>109.6245</v>
       </c>
       <c r="E16" s="3">
-        <v>6</v>
+        <v>2.25</v>
+      </c>
+      <c r="F16">
+        <v>390.17809999999997</v>
       </c>
       <c r="G16">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>12.976074394127645</v>
+      </c>
+      <c r="H16">
+        <v>6.4475899999999999</v>
       </c>
       <c r="I16">
-        <v>14.811</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17">
+        <v>298</v>
+      </c>
+      <c r="C17">
+        <v>30.069040000000001</v>
+      </c>
+      <c r="D17">
+        <f>D11*2.5</f>
+        <v>121.80500000000001</v>
+      </c>
+      <c r="E17" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="F17">
+        <v>390.64512000000002</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="1"/>
+        <v>12.991605984095269</v>
+      </c>
+      <c r="H17">
+        <v>11.225519999999999</v>
+      </c>
+      <c r="I17">
+        <v>13.195</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B18">
         <v>298</v>
       </c>
       <c r="C18">
-        <v>44.095599999999997</v>
+        <v>30.069040000000001</v>
       </c>
       <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
+        <f>D11*2.75</f>
+        <v>133.9855</v>
+      </c>
+      <c r="E18" s="3">
+        <v>2.75</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>409.76656000000003</v>
       </c>
       <c r="G18">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>13.627523858427139</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>16.804259999999999</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>13.37</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B19">
         <v>298</v>
       </c>
       <c r="C19">
-        <v>44.095599999999997</v>
+        <v>30.069040000000001</v>
       </c>
       <c r="D19">
-        <v>42.512</v>
+        <v>146.16999999999999</v>
       </c>
       <c r="E19" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
-        <v>512.94845999999995</v>
+        <v>410.88905999999997</v>
       </c>
       <c r="G19">
         <f t="shared" si="1"/>
-        <v>11.632644980451563</v>
+        <v>13.66485461458031</v>
       </c>
       <c r="H19">
-        <v>3.6452900000000001</v>
+        <v>8.0576399999999992</v>
       </c>
       <c r="I19">
-        <v>11.385</v>
+        <v>13.529</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B20">
         <v>298</v>
       </c>
       <c r="C20">
-        <v>44.095599999999997</v>
+        <v>30.069040000000001</v>
       </c>
       <c r="D20">
-        <v>85.024000000000001</v>
+        <v>194.89</v>
       </c>
       <c r="E20" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F20">
-        <v>522.57437000000004</v>
+        <v>427.5806</v>
       </c>
       <c r="G20">
         <f t="shared" si="1"/>
-        <v>11.850941363764186</v>
+        <v>14.21996179459005</v>
       </c>
       <c r="H20">
-        <v>3.0693199999999998</v>
+        <v>10.41019</v>
       </c>
       <c r="I20">
-        <v>11.612</v>
+        <v>14.054</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B21">
         <v>298</v>
       </c>
       <c r="C21">
-        <v>44.095599999999997</v>
+        <v>30.069040000000001</v>
       </c>
       <c r="D21">
-        <v>127.54</v>
+        <v>243.61</v>
       </c>
       <c r="E21" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F21">
-        <v>530.06769999999995</v>
+        <v>433.03800999999999</v>
       </c>
       <c r="G21">
         <f t="shared" si="1"/>
-        <v>12.020875098649297</v>
+        <v>14.401457778499079</v>
       </c>
       <c r="H21">
-        <v>7.8407799999999996</v>
+        <v>8.5164000000000009</v>
       </c>
       <c r="I21">
-        <v>11.805</v>
+        <v>14.467000000000001</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B22">
         <v>298</v>
       </c>
       <c r="C22">
-        <v>44.095599999999997</v>
+        <v>30.069040000000001</v>
       </c>
       <c r="D22">
-        <v>170.05</v>
+        <v>292.33</v>
       </c>
       <c r="E22" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F22">
-        <v>540.40500999999995</v>
+        <v>447.40875999999997</v>
       </c>
       <c r="G22">
         <f t="shared" si="1"/>
-        <v>12.255304610890882</v>
+        <v>14.879382913455167</v>
       </c>
       <c r="H22">
-        <v>5.6565599999999998</v>
+        <v>5.58847</v>
       </c>
       <c r="I22">
-        <v>11.974</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>34</v>
-      </c>
-      <c r="B23">
-        <v>298</v>
-      </c>
-      <c r="C23">
-        <v>44.095599999999997</v>
-      </c>
-      <c r="D23">
-        <v>212.56</v>
-      </c>
-      <c r="E23" s="3">
-        <v>5</v>
-      </c>
-      <c r="F23">
-        <v>547.19776000000002</v>
-      </c>
-      <c r="G23">
-        <f t="shared" si="1"/>
-        <v>12.409350592802911</v>
-      </c>
-      <c r="H23">
-        <v>2.6002100000000001</v>
-      </c>
-      <c r="I23">
-        <v>12.125</v>
+        <v>14.811</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
@@ -7574,202 +7642,203 @@
         <v>44.095599999999997</v>
       </c>
       <c r="D24">
-        <v>255.07</v>
-      </c>
-      <c r="E24" s="3">
-        <v>6</v>
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>550.00064999999995</v>
+        <v>0</v>
       </c>
       <c r="G24">
         <f t="shared" si="1"/>
-        <v>12.472914531155034</v>
+        <v>0</v>
       </c>
       <c r="H24">
-        <v>3.0058500000000001</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>12.262</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25">
+        <v>298</v>
+      </c>
+      <c r="C25">
+        <v>44.095599999999997</v>
+      </c>
+      <c r="D25">
+        <v>42.512</v>
+      </c>
+      <c r="E25" s="3">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>512.94845999999995</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="1"/>
+        <v>11.632644980451563</v>
+      </c>
+      <c r="H25">
+        <v>3.6452900000000001</v>
+      </c>
+      <c r="I25">
+        <v>11.385</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
-        <v>37</v>
+      <c r="A26" t="s">
+        <v>34</v>
       </c>
       <c r="B26">
         <v>298</v>
       </c>
       <c r="C26">
-        <v>58.122199999999999</v>
+        <v>44.095599999999997</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>85.024000000000001</v>
       </c>
       <c r="E26" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>522.57437000000004</v>
       </c>
       <c r="G26">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>11.850941363764186</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>3.0693199999999998</v>
       </c>
       <c r="I26">
-        <v>0</v>
+        <v>11.612</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
-        <v>37</v>
+      <c r="A27" t="s">
+        <v>34</v>
       </c>
       <c r="B27">
         <v>298</v>
       </c>
       <c r="C27">
-        <v>58.122199999999999</v>
-      </c>
-      <c r="D27" s="2">
-        <v>37.96</v>
+        <v>44.095599999999997</v>
+      </c>
+      <c r="D27">
+        <v>127.54</v>
       </c>
       <c r="E27" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
-        <v>585.50710000000004</v>
+        <v>530.06769999999995</v>
       </c>
       <c r="G27">
         <f t="shared" si="1"/>
-        <v>10.073725702055325</v>
+        <v>12.020875098649297</v>
       </c>
       <c r="H27">
-        <v>8.2824100000000005</v>
+        <v>7.8407799999999996</v>
       </c>
       <c r="I27">
-        <v>9.9601000000000006</v>
+        <v>11.805</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
-        <v>37</v>
+      <c r="A28" t="s">
+        <v>34</v>
       </c>
       <c r="B28">
         <v>298</v>
       </c>
       <c r="C28">
-        <v>58.122199999999999</v>
-      </c>
-      <c r="D28" s="2">
-        <v>75.92</v>
+        <v>44.095599999999997</v>
+      </c>
+      <c r="D28">
+        <v>170.05</v>
       </c>
       <c r="E28" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F28">
-        <v>595.72744999999998</v>
+        <v>540.40500999999995</v>
       </c>
       <c r="G28">
         <f t="shared" si="1"/>
-        <v>10.249568151239973</v>
+        <v>12.255304610890882</v>
       </c>
       <c r="H28">
-        <v>10.00728</v>
+        <v>5.6565599999999998</v>
       </c>
       <c r="I28">
-        <v>10.058999999999999</v>
+        <v>11.974</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
-        <v>37</v>
+      <c r="A29" t="s">
+        <v>34</v>
       </c>
       <c r="B29">
         <v>298</v>
       </c>
       <c r="C29">
-        <v>58.122199999999999</v>
-      </c>
-      <c r="D29" s="2">
-        <v>113.88</v>
+        <v>44.095599999999997</v>
+      </c>
+      <c r="D29">
+        <v>212.56</v>
       </c>
       <c r="E29" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F29">
-        <v>602.94739000000004</v>
+        <v>547.19776000000002</v>
       </c>
       <c r="G29">
         <f t="shared" si="1"/>
-        <v>10.373788156676795</v>
+        <v>12.409350592802911</v>
       </c>
       <c r="H29">
-        <v>4.1289300000000004</v>
+        <v>2.6002100000000001</v>
       </c>
       <c r="I29">
-        <v>10.148999999999999</v>
+        <v>12.125</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
-        <v>37</v>
+      <c r="A30" t="s">
+        <v>34</v>
       </c>
       <c r="B30">
         <v>298</v>
       </c>
       <c r="C30">
-        <v>58.122199999999999</v>
-      </c>
-      <c r="D30" s="2">
-        <v>151.84</v>
+        <v>44.095599999999997</v>
+      </c>
+      <c r="D30">
+        <v>255.07</v>
       </c>
       <c r="E30" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F30">
-        <v>608.14925000000005</v>
+        <v>550.00064999999995</v>
       </c>
       <c r="G30">
         <f t="shared" si="1"/>
-        <v>10.463286833602307</v>
+        <v>12.472914531155034</v>
       </c>
       <c r="H30">
-        <v>5.6850500000000004</v>
+        <v>3.0058500000000001</v>
       </c>
       <c r="I30">
-        <v>10.231999999999999</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B31">
-        <v>298</v>
-      </c>
-      <c r="C31">
-        <v>58.122199999999999</v>
-      </c>
-      <c r="D31" s="2">
-        <v>189.8</v>
-      </c>
-      <c r="E31" s="3">
-        <v>5</v>
-      </c>
-      <c r="F31">
-        <v>611.42728999999997</v>
-      </c>
-      <c r="G31">
-        <f t="shared" si="1"/>
-        <v>10.519685937559142</v>
-      </c>
-      <c r="H31">
-        <v>6.9276499999999999</v>
-      </c>
-      <c r="I31">
-        <v>10.311</v>
+        <v>12.262</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
@@ -7782,203 +7851,203 @@
       <c r="C32">
         <v>58.122199999999999</v>
       </c>
-      <c r="D32" s="2">
-        <v>227.76</v>
+      <c r="D32">
+        <v>0</v>
       </c>
       <c r="E32" s="3">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F32">
-        <v>619.68637999999999</v>
+        <v>0</v>
       </c>
       <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33">
+        <v>298</v>
+      </c>
+      <c r="C33">
+        <v>58.122199999999999</v>
+      </c>
+      <c r="D33" s="2">
+        <v>37.96</v>
+      </c>
+      <c r="E33" s="3">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>585.50710000000004</v>
+      </c>
+      <c r="G33">
         <f t="shared" si="1"/>
-        <v>10.661784653712351</v>
-      </c>
-      <c r="H32">
-        <v>5.62819</v>
-      </c>
-      <c r="I32">
-        <v>10.384</v>
+        <v>10.073725702055325</v>
+      </c>
+      <c r="H33">
+        <v>8.2824100000000005</v>
+      </c>
+      <c r="I33">
+        <v>9.9601000000000006</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B34">
         <v>298</v>
       </c>
       <c r="C34">
-        <v>86.175399999999996</v>
+        <v>58.122199999999999</v>
       </c>
       <c r="D34" s="2">
-        <v>0</v>
+        <v>75.92</v>
       </c>
       <c r="E34" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F34">
-        <v>0</v>
+        <v>595.72744999999998</v>
       </c>
       <c r="G34">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>10.249568151239973</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>10.00728</v>
       </c>
       <c r="I34">
-        <v>0</v>
+        <v>10.058999999999999</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B35">
         <v>298</v>
       </c>
       <c r="C35">
-        <v>86.175399999999996</v>
-      </c>
-      <c r="D35">
-        <v>30.440999999999999</v>
+        <v>58.122199999999999</v>
+      </c>
+      <c r="D35" s="2">
+        <v>113.88</v>
       </c>
       <c r="E35" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F35">
-        <v>671.86330999999996</v>
+        <v>602.94739000000004</v>
       </c>
       <c r="G35">
         <f t="shared" si="1"/>
-        <v>7.7964629116894146</v>
+        <v>10.373788156676795</v>
       </c>
       <c r="H35">
-        <v>5.5011000000000001</v>
+        <v>4.1289300000000004</v>
       </c>
       <c r="I35">
-        <v>7.6376999999999997</v>
+        <v>10.148999999999999</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B36">
         <v>298</v>
       </c>
       <c r="C36">
-        <v>86.175399999999996</v>
-      </c>
-      <c r="D36">
-        <v>60.881999999999998</v>
+        <v>58.122199999999999</v>
+      </c>
+      <c r="D36" s="2">
+        <v>151.84</v>
       </c>
       <c r="E36" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F36">
-        <v>672.12016000000006</v>
+        <v>608.14925000000005</v>
       </c>
       <c r="G36">
         <f t="shared" si="1"/>
-        <v>7.799443460662788</v>
+        <v>10.463286833602307</v>
       </c>
       <c r="H36">
-        <v>12.24272</v>
+        <v>5.6850500000000004</v>
       </c>
       <c r="I36">
-        <v>7.6743000000000006</v>
+        <v>10.231999999999999</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B37">
         <v>298</v>
       </c>
       <c r="C37">
-        <v>86.175399999999996</v>
-      </c>
-      <c r="D37">
-        <v>91.322999999999993</v>
+        <v>58.122199999999999</v>
+      </c>
+      <c r="D37" s="2">
+        <v>189.8</v>
       </c>
       <c r="E37" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F37">
-        <v>673.53926999999999</v>
+        <v>611.42728999999997</v>
       </c>
       <c r="G37">
         <f t="shared" si="1"/>
-        <v>7.8159111532989689</v>
+        <v>10.519685937559142</v>
       </c>
       <c r="H37">
-        <v>8.4894300000000005</v>
+        <v>6.9276499999999999</v>
       </c>
       <c r="I37">
-        <v>7.7092000000000001</v>
+        <v>10.311</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B38">
         <v>298</v>
       </c>
       <c r="C38">
-        <v>86.175399999999996</v>
-      </c>
-      <c r="D38">
-        <v>121.76</v>
+        <v>58.122199999999999</v>
+      </c>
+      <c r="D38" s="2">
+        <v>227.76</v>
       </c>
       <c r="E38" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F38">
-        <v>681.77903000000003</v>
+        <v>619.68637999999999</v>
       </c>
       <c r="G38">
         <f t="shared" si="1"/>
-        <v>7.9115273036156495</v>
+        <v>10.661784653712351</v>
       </c>
       <c r="H38">
-        <v>2.24987</v>
+        <v>5.62819</v>
       </c>
       <c r="I38">
-        <v>7.7427000000000001</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B39">
-        <v>298</v>
-      </c>
-      <c r="C39">
-        <v>86.175399999999996</v>
-      </c>
-      <c r="D39">
-        <v>152.21</v>
-      </c>
-      <c r="E39" s="3">
-        <v>5</v>
-      </c>
-      <c r="F39">
-        <v>685.70853999999997</v>
-      </c>
-      <c r="G39">
-        <f t="shared" si="1"/>
-        <v>7.9571262796575359</v>
-      </c>
-      <c r="H39">
-        <v>10.339880000000001</v>
-      </c>
-      <c r="I39">
-        <v>7.7748999999999997</v>
+        <v>10.384</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
@@ -7991,28 +8060,207 @@
       <c r="C40">
         <v>86.175399999999996</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="2">
+        <v>0</v>
+      </c>
+      <c r="E40" s="3">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B41">
+        <v>298</v>
+      </c>
+      <c r="C41">
+        <v>86.175399999999996</v>
+      </c>
+      <c r="D41">
+        <v>30.440999999999999</v>
+      </c>
+      <c r="E41" s="3">
+        <v>1</v>
+      </c>
+      <c r="F41">
+        <v>671.86330999999996</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="1"/>
+        <v>7.7964629116894146</v>
+      </c>
+      <c r="H41">
+        <v>5.5011000000000001</v>
+      </c>
+      <c r="I41">
+        <v>7.6376999999999997</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B42">
+        <v>298</v>
+      </c>
+      <c r="C42">
+        <v>86.175399999999996</v>
+      </c>
+      <c r="D42">
+        <v>60.881999999999998</v>
+      </c>
+      <c r="E42" s="3">
+        <v>2</v>
+      </c>
+      <c r="F42">
+        <v>672.12016000000006</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="1"/>
+        <v>7.799443460662788</v>
+      </c>
+      <c r="H42">
+        <v>12.24272</v>
+      </c>
+      <c r="I42">
+        <v>7.6743000000000006</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B43">
+        <v>298</v>
+      </c>
+      <c r="C43">
+        <v>86.175399999999996</v>
+      </c>
+      <c r="D43">
+        <v>91.322999999999993</v>
+      </c>
+      <c r="E43" s="3">
+        <v>3</v>
+      </c>
+      <c r="F43">
+        <v>673.53926999999999</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="1"/>
+        <v>7.8159111532989689</v>
+      </c>
+      <c r="H43">
+        <v>8.4894300000000005</v>
+      </c>
+      <c r="I43">
+        <v>7.7092000000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B44">
+        <v>298</v>
+      </c>
+      <c r="C44">
+        <v>86.175399999999996</v>
+      </c>
+      <c r="D44">
+        <v>121.76</v>
+      </c>
+      <c r="E44" s="3">
+        <v>4</v>
+      </c>
+      <c r="F44">
+        <v>681.77903000000003</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="1"/>
+        <v>7.9115273036156495</v>
+      </c>
+      <c r="H44">
+        <v>2.24987</v>
+      </c>
+      <c r="I44">
+        <v>7.7427000000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B45">
+        <v>298</v>
+      </c>
+      <c r="C45">
+        <v>86.175399999999996</v>
+      </c>
+      <c r="D45">
+        <v>152.21</v>
+      </c>
+      <c r="E45" s="3">
+        <v>5</v>
+      </c>
+      <c r="F45">
+        <v>685.70853999999997</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="1"/>
+        <v>7.9571262796575359</v>
+      </c>
+      <c r="H45">
+        <v>10.339880000000001</v>
+      </c>
+      <c r="I45">
+        <v>7.7748999999999997</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B46">
+        <v>298</v>
+      </c>
+      <c r="C46">
+        <v>86.175399999999996</v>
+      </c>
+      <c r="D46">
         <v>182.65</v>
       </c>
-      <c r="E40" s="3">
+      <c r="E46" s="3">
         <v>6</v>
       </c>
-      <c r="F40">
+      <c r="F46">
         <v>688.95898</v>
       </c>
-      <c r="G40">
+      <c r="G46">
         <f t="shared" si="1"/>
         <v>7.994845164629349</v>
       </c>
-      <c r="H40">
+      <c r="H46">
         <v>10.571870000000001</v>
       </c>
-      <c r="I40">
+      <c r="I46">
         <v>7.8058999999999994</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A41" s="1"/>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A47" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9876,10 +10124,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3553DD4B-5FBF-FC4E-8093-72C33933519C}">
-  <dimension ref="A1:O10"/>
+  <dimension ref="A1:O16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:B10"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9991,7 +10239,7 @@
         <v>3469.5</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D10" si="0">C3/1000</f>
+        <f t="shared" ref="D3:D16" si="0">C3/1000</f>
         <v>3.4695</v>
       </c>
       <c r="E3">
@@ -10125,242 +10373,302 @@
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>298</v>
-      </c>
-      <c r="B6">
-        <v>97.444000000000003</v>
-      </c>
       <c r="C6">
-        <v>12779</v>
+        <v>11800</v>
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
-        <v>12.779</v>
-      </c>
-      <c r="E6" s="1">
-        <v>7.8255000000000002E-5</v>
-      </c>
-      <c r="F6">
-        <v>8.8620000000000001</v>
-      </c>
-      <c r="G6">
-        <v>9.6244999999999994</v>
-      </c>
-      <c r="H6">
-        <v>37.648000000000003</v>
-      </c>
-      <c r="I6">
-        <v>50.585999999999999</v>
-      </c>
-      <c r="J6">
-        <v>102.21</v>
-      </c>
-      <c r="K6">
-        <v>586.94000000000005</v>
-      </c>
-      <c r="L6">
-        <v>5.6070000000000002E-2</v>
-      </c>
-      <c r="M6">
-        <v>53.414999999999999</v>
-      </c>
-      <c r="N6">
-        <v>8.6947999999999998E-2</v>
-      </c>
-      <c r="O6" t="s">
-        <v>33</v>
-      </c>
+        <v>11.8</v>
+      </c>
+      <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>298</v>
-      </c>
-      <c r="B7">
-        <v>146.16999999999999</v>
-      </c>
       <c r="C7">
-        <v>13529</v>
+        <v>12207</v>
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>13.529</v>
-      </c>
-      <c r="E7" s="1">
-        <v>7.3917000000000004E-5</v>
-      </c>
-      <c r="F7">
-        <v>8.3770000000000007</v>
-      </c>
-      <c r="G7">
-        <v>9.4573999999999998</v>
-      </c>
-      <c r="H7">
-        <v>35.847000000000001</v>
-      </c>
-      <c r="I7">
-        <v>50.274999999999999</v>
-      </c>
-      <c r="J7">
-        <v>91.87</v>
-      </c>
-      <c r="K7">
-        <v>697.94</v>
-      </c>
-      <c r="L7">
-        <v>1.9594E-2</v>
-      </c>
-      <c r="M7">
-        <v>60.918999999999997</v>
-      </c>
-      <c r="N7">
-        <v>9.5085000000000003E-2</v>
-      </c>
-      <c r="O7" t="s">
-        <v>33</v>
-      </c>
+        <v>12.207000000000001</v>
+      </c>
+      <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>298</v>
-      </c>
-      <c r="B8">
-        <v>194.89</v>
-      </c>
       <c r="C8">
-        <v>14054</v>
+        <v>12521</v>
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
-        <v>14.054</v>
-      </c>
-      <c r="E8" s="1">
-        <v>7.1153000000000001E-5</v>
-      </c>
-      <c r="F8">
-        <v>8.0288000000000004</v>
-      </c>
-      <c r="G8">
-        <v>9.4154999999999998</v>
-      </c>
-      <c r="H8">
-        <v>34.521999999999998</v>
-      </c>
-      <c r="I8">
-        <v>50.244999999999997</v>
-      </c>
-      <c r="J8">
-        <v>86.915000000000006</v>
-      </c>
-      <c r="K8">
-        <v>781.35</v>
-      </c>
-      <c r="L8">
-        <v>1.2072999999999999E-3</v>
-      </c>
-      <c r="M8">
-        <v>67.066000000000003</v>
-      </c>
-      <c r="N8">
-        <v>0.10167</v>
-      </c>
-      <c r="O8" t="s">
-        <v>33</v>
-      </c>
+        <v>12.521000000000001</v>
+      </c>
+      <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>298</v>
       </c>
       <c r="B9">
-        <v>243.61</v>
+        <v>97.444000000000003</v>
       </c>
       <c r="C9">
-        <v>14467</v>
+        <v>12779</v>
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
-        <v>14.467000000000001</v>
+        <v>12.779</v>
       </c>
       <c r="E9" s="1">
-        <v>6.9121000000000004E-5</v>
+        <v>7.8255000000000002E-5</v>
       </c>
       <c r="F9">
-        <v>7.7518000000000002</v>
+        <v>8.8620000000000001</v>
       </c>
       <c r="G9">
-        <v>9.4356000000000009</v>
+        <v>9.6244999999999994</v>
       </c>
       <c r="H9">
-        <v>33.442999999999998</v>
+        <v>37.648000000000003</v>
       </c>
       <c r="I9">
-        <v>50.308999999999997</v>
+        <v>50.585999999999999</v>
       </c>
       <c r="J9">
-        <v>83.897000000000006</v>
+        <v>102.21</v>
       </c>
       <c r="K9">
-        <v>850.17</v>
+        <v>586.94000000000005</v>
       </c>
       <c r="L9">
-        <v>-1.0187E-2</v>
+        <v>5.6070000000000002E-2</v>
       </c>
       <c r="M9">
-        <v>72.516000000000005</v>
+        <v>53.414999999999999</v>
       </c>
       <c r="N9">
-        <v>0.1074</v>
+        <v>8.6947999999999998E-2</v>
       </c>
       <c r="O9" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>298</v>
-      </c>
-      <c r="B10">
-        <v>292.33</v>
-      </c>
       <c r="C10">
-        <v>14811</v>
+        <v>13000</v>
       </c>
       <c r="D10">
         <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="C11">
+        <v>13195</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>13.195</v>
+      </c>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="C12">
+        <v>13370</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>13.37</v>
+      </c>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>298</v>
+      </c>
+      <c r="B13">
+        <v>146.16999999999999</v>
+      </c>
+      <c r="C13">
+        <v>13529</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>13.529</v>
+      </c>
+      <c r="E13" s="1">
+        <v>7.3917000000000004E-5</v>
+      </c>
+      <c r="F13">
+        <v>8.3770000000000007</v>
+      </c>
+      <c r="G13">
+        <v>9.4573999999999998</v>
+      </c>
+      <c r="H13">
+        <v>35.847000000000001</v>
+      </c>
+      <c r="I13">
+        <v>50.274999999999999</v>
+      </c>
+      <c r="J13">
+        <v>91.87</v>
+      </c>
+      <c r="K13">
+        <v>697.94</v>
+      </c>
+      <c r="L13">
+        <v>1.9594E-2</v>
+      </c>
+      <c r="M13">
+        <v>60.918999999999997</v>
+      </c>
+      <c r="N13">
+        <v>9.5085000000000003E-2</v>
+      </c>
+      <c r="O13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>298</v>
+      </c>
+      <c r="B14">
+        <v>194.89</v>
+      </c>
+      <c r="C14">
+        <v>14054</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>14.054</v>
+      </c>
+      <c r="E14" s="1">
+        <v>7.1153000000000001E-5</v>
+      </c>
+      <c r="F14">
+        <v>8.0288000000000004</v>
+      </c>
+      <c r="G14">
+        <v>9.4154999999999998</v>
+      </c>
+      <c r="H14">
+        <v>34.521999999999998</v>
+      </c>
+      <c r="I14">
+        <v>50.244999999999997</v>
+      </c>
+      <c r="J14">
+        <v>86.915000000000006</v>
+      </c>
+      <c r="K14">
+        <v>781.35</v>
+      </c>
+      <c r="L14">
+        <v>1.2072999999999999E-3</v>
+      </c>
+      <c r="M14">
+        <v>67.066000000000003</v>
+      </c>
+      <c r="N14">
+        <v>0.10167</v>
+      </c>
+      <c r="O14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>298</v>
+      </c>
+      <c r="B15">
+        <v>243.61</v>
+      </c>
+      <c r="C15">
+        <v>14467</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>14.467000000000001</v>
+      </c>
+      <c r="E15" s="1">
+        <v>6.9121000000000004E-5</v>
+      </c>
+      <c r="F15">
+        <v>7.7518000000000002</v>
+      </c>
+      <c r="G15">
+        <v>9.4356000000000009</v>
+      </c>
+      <c r="H15">
+        <v>33.442999999999998</v>
+      </c>
+      <c r="I15">
+        <v>50.308999999999997</v>
+      </c>
+      <c r="J15">
+        <v>83.897000000000006</v>
+      </c>
+      <c r="K15">
+        <v>850.17</v>
+      </c>
+      <c r="L15">
+        <v>-1.0187E-2</v>
+      </c>
+      <c r="M15">
+        <v>72.516000000000005</v>
+      </c>
+      <c r="N15">
+        <v>0.1074</v>
+      </c>
+      <c r="O15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>298</v>
+      </c>
+      <c r="B16">
+        <v>292.33</v>
+      </c>
+      <c r="C16">
+        <v>14811</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
         <v>14.811</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E16" s="1">
         <v>6.7515000000000007E-5</v>
       </c>
-      <c r="F10">
+      <c r="F16">
         <v>7.5197000000000003</v>
       </c>
-      <c r="G10">
+      <c r="G16">
         <v>9.4933999999999994</v>
       </c>
-      <c r="H10">
+      <c r="H16">
         <v>32.521000000000001</v>
       </c>
-      <c r="I10">
+      <c r="I16">
         <v>50.414000000000001</v>
       </c>
-      <c r="J10">
+      <c r="J16">
         <v>81.83</v>
       </c>
-      <c r="K10">
+      <c r="K16">
         <v>909.63</v>
       </c>
-      <c r="L10">
+      <c r="L16">
         <v>-1.8027000000000001E-2</v>
       </c>
-      <c r="M10">
+      <c r="M16">
         <v>77.534000000000006</v>
       </c>
-      <c r="N10">
+      <c r="N16">
         <v>0.11258</v>
       </c>
-      <c r="O10" t="s">
+      <c r="O16" t="s">
         <v>33</v>
       </c>
     </row>
